--- a/benchmark/multiply_matrix_with_a_number.xlsx
+++ b/benchmark/multiply_matrix_with_a_number.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="2" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>Git  commit</t>
   </si>
   <si>
-    <t>278313f</t>
-  </si>
-  <si>
     <t>Optimized</t>
   </si>
   <si>
@@ -59,13 +56,19 @@
   <si>
     <t>The "measurements" sheet contains time to multiply a 5000 by 5000 matrix with a number. The benchmark code is located in sec/benchmark_test.c, test_benchmark_multiply_matrix_with_a_number.
 The text like `c830f4e` in the brackets indicates the GIT commit that was used to run the benchmark.</t>
+  </si>
+  <si>
+    <t>eccc039</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -102,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -126,6 +129,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,22 +446,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0"/>
+    <sheetView zoomScale="162" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="80.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="68" customHeight="1">
+    <row r="1" spans="1:1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:1" ht="48">
+    <row r="3" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -471,16 +475,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="161" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -488,7 +492,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -497,84 +501,74 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.190998</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.12695500000000001</v>
-      </c>
+      <c r="B3" s="9">
+        <v>0.11205</v>
+      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="B4" s="3">
-        <v>0.17870900000000001</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.127279</v>
-      </c>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="9">
+        <v>0.10927199999999999</v>
+      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="B5" s="3">
-        <v>0.20787900000000001</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.117008</v>
-      </c>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="9">
+        <v>0.10964699999999999</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="3">
-        <v>0.20230100000000001</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.127441</v>
-      </c>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="9">
+        <v>0.114528</v>
+      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="3">
-        <v>0.18679299999999999</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.145928</v>
-      </c>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="9">
+        <v>0.12640399999999999</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -583,17 +577,17 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="3">
         <f>AVERAGE(B3:B7)</f>
-        <v>0.19333600000000001</v>
-      </c>
-      <c r="C9" s="3">
+        <v>0.1143802</v>
+      </c>
+      <c r="C9" s="3" t="e">
         <f>AVERAGE(C3:C7)</f>
-        <v>0.12892220000000001</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -601,17 +595,17 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="3">
         <f>_xlfn.STDEV.S(B3:B7)/SQRT(COUNT(B3:B7))</f>
-        <v>5.2635363397624622E-3</v>
-      </c>
-      <c r="C10" s="3">
+        <v>3.1505581473764287E-3</v>
+      </c>
+      <c r="C10" s="3" t="e">
         <f>_xlfn.STDEV.S(C3:C7)/SQRT(COUNT(C3:C7))</f>
-        <v>4.6899324664647357E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -619,13 +613,13 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="32">
+    <row r="12" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="e">
         <f>B9/C9</f>
-        <v>1.499633112062934</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/benchmark/multiply_matrix_with_a_number.xlsx
+++ b/benchmark/multiply_matrix_with_a_number.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Time (s)</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>eccc039</t>
+  </si>
+  <si>
+    <t>0e77dff</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -508,7 +511,9 @@
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -517,7 +522,9 @@
       <c r="B3" s="9">
         <v>0.11205</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="9">
+        <v>3.5684E-2</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -528,7 +535,9 @@
       <c r="B4" s="9">
         <v>0.10927199999999999</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="9">
+        <v>3.2932000000000003E-2</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -539,7 +548,9 @@
       <c r="B5" s="9">
         <v>0.10964699999999999</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="9">
+        <v>3.2428999999999999E-2</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -550,7 +561,9 @@
       <c r="B6" s="9">
         <v>0.114528</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="9">
+        <v>2.9936000000000001E-2</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -561,7 +574,9 @@
       <c r="B7" s="9">
         <v>0.12640399999999999</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="9">
+        <v>3.0249000000000002E-2</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -585,9 +600,9 @@
         <f>AVERAGE(B3:B7)</f>
         <v>0.1143802</v>
       </c>
-      <c r="C9" s="3" t="e">
+      <c r="C9" s="3">
         <f>AVERAGE(C3:C7)</f>
-        <v>#DIV/0!</v>
+        <v>3.2246000000000004E-2</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -603,9 +618,9 @@
         <f>_xlfn.STDEV.S(B3:B7)/SQRT(COUNT(B3:B7))</f>
         <v>3.1505581473764287E-3</v>
       </c>
-      <c r="C10" s="3" t="e">
+      <c r="C10" s="3">
         <f>_xlfn.STDEV.S(C3:C7)/SQRT(COUNT(C3:C7))</f>
-        <v>#DIV/0!</v>
+        <v>1.0403854574147025E-3</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -617,9 +632,9 @@
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="e">
+      <c r="C12" s="3">
         <f>B9/C9</f>
-        <v>#DIV/0!</v>
+        <v>3.5471128201947524</v>
       </c>
     </row>
   </sheetData>
